--- a/data/trans_bre/POLIPATOLOGIA_Lim_5-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_Lim_5-Estudios-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.960830273271829</v>
+        <v>6.68713386167708</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.27818485935761</v>
+        <v>8.529940183284214</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10.95307832712738</v>
+        <v>11.37852227167286</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.6360279311453425</v>
+        <v>0.6169983937455673</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8789657614985827</v>
+        <v>0.8789901911000435</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4902386956937401</v>
+        <v>0.5103317823066024</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.71270644328721</v>
+        <v>12.51907869959342</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.91485574222692</v>
+        <v>14.87219178857666</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18.98410945857168</v>
+        <v>19.36089936534825</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.635527158999413</v>
+        <v>1.583076427638348</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.233076240259887</v>
+        <v>2.291455551301945</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.116665280936341</v>
+        <v>1.110047819691155</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>3.525899251798808</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4.901349977489398</v>
+        <v>4.901349977489395</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.747185164689817</v>
@@ -709,7 +709,7 @@
         <v>2.060052102899984</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9380871601107431</v>
+        <v>0.9380871601107426</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.345043540411961</v>
+        <v>1.308297242477807</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.394773782630218</v>
+        <v>2.299405781306864</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.434809818414042</v>
+        <v>3.445541937681032</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.7923421782541805</v>
+        <v>0.7238137067550322</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.090611074764964</v>
+        <v>1.027833997103518</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5830047967012422</v>
+        <v>0.5853512983275517</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.527448879181795</v>
+        <v>3.541639902028903</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.777039447530113</v>
+        <v>4.703766834190823</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.301366123859623</v>
+        <v>6.278118605688551</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.488894603078318</v>
+        <v>3.452832935827529</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.724289591870996</v>
+        <v>3.566265377309179</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.397514729442018</v>
+        <v>1.336388715679337</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>0.9704833630399354</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5.332778158402321</v>
+        <v>5.332778158402323</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.9760689076129151</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5998980252576418</v>
+        <v>-0.8858498997412226</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.158112049733516</v>
+        <v>-1.086652040584607</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.329557818596324</v>
+        <v>3.207159507584754</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.3886935920193814</v>
+        <v>-0.6177506983049846</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4388960449118688</v>
+        <v>-0.4032997802214526</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.831431362925305</v>
+        <v>0.928866251846438</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.321056036813338</v>
+        <v>3.172787142681192</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.885406507065613</v>
+        <v>3.103507043737943</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.275000251954558</v>
+        <v>7.270595285119487</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>9.405298816625864</v>
+        <v>6.605419448839377</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.665741193799886</v>
+        <v>2.698615859355521</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>4.244921036685012</v>
+        <v>4.068814561382695</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>5.823550172762522</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8.040116700188602</v>
+        <v>8.0401167001886</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>1.596343867455449</v>
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.515066842561494</v>
+        <v>4.601224044516159</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.663740699502497</v>
+        <v>4.617905185769159</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.75686940358309</v>
+        <v>6.77150283489728</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1.121972861663047</v>
+        <v>1.114628199410803</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1.299254768581071</v>
+        <v>1.239301055804754</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8837643115815502</v>
+        <v>0.8846880232747183</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.863821991407216</v>
+        <v>6.852819359711681</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.970072334256049</v>
+        <v>7.058271799017614</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.230956216792199</v>
+        <v>9.255504655724391</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.22334868652105</v>
+        <v>2.173905883967776</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.550132719808734</v>
+        <v>2.561553282864491</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.439708177208547</v>
+        <v>1.443274524744891</v>
       </c>
     </row>
     <row r="16">
